--- a/xjcloud-provider/xjcloud-provider-audit/src/main/resources/template/词条导入模板.xlsx
+++ b/xjcloud-provider/xjcloud-provider-audit/src/main/resources/template/词条导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaungMiao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF67762-5B78-48C6-A421-3405E2904041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363793C7-882C-47C5-B660-BE633AB8A22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>除“问题词条”之外，其余词条类型均不包含四级词条</t>
+          <t>审计分类二级词条
+风险评估四级词条</t>
         </r>
       </text>
     </comment>
@@ -68,9 +69,6 @@
     <t>审计分类</t>
   </si>
   <si>
-    <t>问题词条</t>
-  </si>
-  <si>
     <t>风险评估</t>
   </si>
   <si>
@@ -99,6 +97,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -481,31 +483,31 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -557,7 +559,7 @@
   <dimension ref="A3:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -592,16 +594,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>